--- a/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>31349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20986</v>
+        <v>21918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44184</v>
+        <v>43155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05455116663187259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03651888408342141</v>
+        <v>0.03813967243623705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07688620861018773</v>
+        <v>0.07509527252641436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -762,19 +762,19 @@
         <v>44946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36067</v>
+        <v>36081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55958</v>
+        <v>54997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0553495406252091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04441440271524084</v>
+        <v>0.04443165878214278</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06890956004936244</v>
+        <v>0.06772587450452745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -783,19 +783,19 @@
         <v>76295</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62509</v>
+        <v>62562</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91156</v>
+        <v>91032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05501868778550743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04507740380252964</v>
+        <v>0.04511526153356252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06573539177091645</v>
+        <v>0.0656456908678732</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>63258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49625</v>
+        <v>51395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76953</v>
+        <v>77691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1100782470017739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08635444853667756</v>
+        <v>0.08943401919974163</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.13390977045301</v>
+        <v>0.135193153121711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -833,19 +833,19 @@
         <v>126487</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111271</v>
+        <v>111468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141148</v>
+        <v>142587</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1557625854438357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1370248491869953</v>
+        <v>0.1372673698515785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1738177144847887</v>
+        <v>0.1755894439828479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>319</v>
@@ -854,19 +854,19 @@
         <v>189745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169097</v>
+        <v>167480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>210551</v>
+        <v>209800</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1368306146762498</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1219408352042918</v>
+        <v>0.1207751004722289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1518343635092561</v>
+        <v>0.1512929911286815</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>125053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107357</v>
+        <v>109321</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>145376</v>
+        <v>145470</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2176101931418048</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1868163064694196</v>
+        <v>0.1902339964934115</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2529750265398843</v>
+        <v>0.2531382010497973</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>386</v>
@@ -904,19 +904,19 @@
         <v>210995</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>192646</v>
+        <v>191867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>230549</v>
+        <v>230413</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2598303904428637</v>
+        <v>0.2598303904428636</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2372344185761311</v>
+        <v>0.23627556830805</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2839107224557512</v>
+        <v>0.2837429436680395</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>550</v>
@@ -925,19 +925,19 @@
         <v>336048</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>308508</v>
+        <v>309472</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>361413</v>
+        <v>360643</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2423339886482077</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2224741114947156</v>
+        <v>0.2231697827704863</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.26062562000531</v>
+        <v>0.260070686111823</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>204593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>184913</v>
+        <v>182995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>227809</v>
+        <v>227486</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3560203097512102</v>
+        <v>0.3560203097512103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3217752877353999</v>
+        <v>0.3184369865115171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3964197574819034</v>
+        <v>0.3958572712419028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>469</v>
@@ -975,19 +975,19 @@
         <v>283963</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>263962</v>
+        <v>264434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305086</v>
+        <v>306475</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3496877444099888</v>
+        <v>0.3496877444099887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.325057149888573</v>
+        <v>0.3256388442439548</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3756991505098606</v>
+        <v>0.3774099405757587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>705</v>
@@ -996,19 +996,19 @@
         <v>488556</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>456087</v>
+        <v>459733</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>521065</v>
+        <v>518429</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3523120122884845</v>
+        <v>0.3523120122884846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3288977174091752</v>
+        <v>0.3315271863184514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3757554372961898</v>
+        <v>0.3738546128519796</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>150413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>129576</v>
+        <v>129590</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172508</v>
+        <v>170479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2617400834733383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2254799904639323</v>
+        <v>0.2255046570673709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3001878915566736</v>
+        <v>0.2966569558410564</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>237</v>
@@ -1046,19 +1046,19 @@
         <v>145657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130716</v>
+        <v>129342</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>162697</v>
+        <v>164024</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1793697390781029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1609713034856494</v>
+        <v>0.1592788164444152</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2003543086409895</v>
+        <v>0.2019875061534049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>392</v>
@@ -1067,19 +1067,19 @@
         <v>296070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>271393</v>
+        <v>270357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>328912</v>
+        <v>327339</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2135046966015504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1957093180363415</v>
+        <v>0.1949621216872506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2371883040345185</v>
+        <v>0.236054112255613</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>29665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21134</v>
+        <v>20892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42113</v>
+        <v>43341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01330837006704109</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009481094920823562</v>
+        <v>0.009372900021037831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0188932315755162</v>
+        <v>0.01944412768624709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1192,19 +1192,19 @@
         <v>38619</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28921</v>
+        <v>27648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56305</v>
+        <v>54542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01781591433478455</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01334196701428691</v>
+        <v>0.01275478467155739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02597517002139881</v>
+        <v>0.02516186372707806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -1216,16 +1216,16 @@
         <v>54883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88231</v>
+        <v>87073</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01553068333332023</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01248292960669481</v>
+        <v>0.01248292151373362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.020067759755643</v>
+        <v>0.01980422598180254</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>96004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79483</v>
+        <v>77093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115540</v>
+        <v>115056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04306996846891616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03565816885529451</v>
+        <v>0.0345862368272235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05183443556809163</v>
+        <v>0.05161733737998273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -1263,19 +1263,19 @@
         <v>105444</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88169</v>
+        <v>90092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126506</v>
+        <v>125015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04864434636104804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04067466896396423</v>
+        <v>0.04156180887243245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0583608373635839</v>
+        <v>0.05767306264008822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -1284,19 +1284,19 @@
         <v>201448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>176782</v>
+        <v>174684</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230231</v>
+        <v>229335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04581825294602889</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0402081276065233</v>
+        <v>0.03973086948898719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05236471829285192</v>
+        <v>0.05216103613679197</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>249865</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>220467</v>
+        <v>219776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>285623</v>
+        <v>285556</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.112096036565484</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09890733917016453</v>
+        <v>0.09859747326247441</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1281381223313662</v>
+        <v>0.128108278956827</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>409</v>
@@ -1334,19 +1334,19 @@
         <v>290256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>262986</v>
+        <v>262302</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>321109</v>
+        <v>319372</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1339035909272308</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1213230659492993</v>
+        <v>0.1210075074495294</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1481366583750677</v>
+        <v>0.147335583467845</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>664</v>
@@ -1355,19 +1355,19 @@
         <v>540121</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>497651</v>
+        <v>497018</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>581085</v>
+        <v>584015</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1228476153597339</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1131881319116138</v>
+        <v>0.1130440021794688</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1321647746831751</v>
+        <v>0.1328311464002773</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>1057635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>998063</v>
+        <v>1000912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1112756</v>
+        <v>1114514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4744840749325476</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4477582290508598</v>
+        <v>0.4490362558754066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4992128626513189</v>
+        <v>0.5000011948562623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1459</v>
@@ -1405,19 +1405,19 @@
         <v>1025531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>980287</v>
+        <v>981954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1067539</v>
+        <v>1068577</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4731069176781588</v>
+        <v>0.4731069176781587</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4522346079279282</v>
+        <v>0.4530035581075942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4924865256780352</v>
+        <v>0.4929649883132687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2456</v>
@@ -1426,19 +1426,19 @@
         <v>2083167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2009380</v>
+        <v>2020148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2150405</v>
+        <v>2158606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4738051077046311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4570228154162386</v>
+        <v>0.4594718032307619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4890981111937353</v>
+        <v>0.4909634798311739</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>795853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>738764</v>
+        <v>739126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>853698</v>
+        <v>848863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3570415499660111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3314296899025276</v>
+        <v>0.331592032962151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3829922460922497</v>
+        <v>0.3808231008644357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>849</v>
@@ -1476,19 +1476,19 @@
         <v>707802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>668001</v>
+        <v>667184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>750326</v>
+        <v>747418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3265292306987779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3081679234828236</v>
+        <v>0.3077911892484209</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3461469622594499</v>
+        <v>0.3448054914531137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1450</v>
@@ -1497,19 +1497,19 @@
         <v>1503655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1437281</v>
+        <v>1435313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1574702</v>
+        <v>1570590</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3419983406562858</v>
+        <v>0.3419983406562859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3269018094343828</v>
+        <v>0.3264543776572322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3581575610744122</v>
+        <v>0.3572224082995509</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>11323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4893</v>
+        <v>5274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22330</v>
+        <v>21933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01591242993632021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006875923360471406</v>
+        <v>0.007412162851499438</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0313808901770648</v>
+        <v>0.03082214157068957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1622,19 +1622,19 @@
         <v>6466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3165</v>
+        <v>3280</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12356</v>
+        <v>11676</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.008799362782425355</v>
+        <v>0.008799362782425357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004307213651824573</v>
+        <v>0.004464007650336259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01681368704281547</v>
+        <v>0.01588837469269829</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1643,19 +1643,19 @@
         <v>17790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10775</v>
+        <v>10335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29080</v>
+        <v>29679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01229863082247198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007449304788781355</v>
+        <v>0.007145228237061792</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02010391878056155</v>
+        <v>0.02051812128662889</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>15191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8339</v>
+        <v>7847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27032</v>
+        <v>28249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02134785160139172</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01171825558314407</v>
+        <v>0.01102678735362941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03798803032155209</v>
+        <v>0.03969884396422007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1693,19 +1693,19 @@
         <v>19309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12813</v>
+        <v>13140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28098</v>
+        <v>28078</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0262746665374643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01743575831849756</v>
+        <v>0.01787986615289646</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03823560779103872</v>
+        <v>0.03820777863666481</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1714,19 +1714,19 @@
         <v>34500</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24661</v>
+        <v>23792</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48494</v>
+        <v>48024</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02385092363274802</v>
+        <v>0.02385092363274801</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01704901606993542</v>
+        <v>0.01644831455984629</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03352592105786309</v>
+        <v>0.0332010295977994</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>66398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52469</v>
+        <v>52262</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83100</v>
+        <v>84671</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09330960215896771</v>
+        <v>0.09330960215896769</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07373537424604655</v>
+        <v>0.07344368592762887</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1167819054365622</v>
+        <v>0.1189884260677508</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>96</v>
@@ -1764,19 +1764,19 @@
         <v>74215</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60447</v>
+        <v>59888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91635</v>
+        <v>91554</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.100989807039445</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08225474261459335</v>
+        <v>0.08149406285322115</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1246939395219131</v>
+        <v>0.1245838789096328</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>169</v>
@@ -1785,19 +1785,19 @@
         <v>140613</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119586</v>
+        <v>120419</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>163488</v>
+        <v>165816</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09721153602107732</v>
+        <v>0.09721153602107731</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08267442095701712</v>
+        <v>0.08325042020053997</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1130260784254911</v>
+        <v>0.1146355035892136</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>328277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>299061</v>
+        <v>299220</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>354828</v>
+        <v>355891</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4613301524954617</v>
+        <v>0.4613301524954616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.420273405019136</v>
+        <v>0.4204964429060891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4986428850406311</v>
+        <v>0.5001366441414254</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>502</v>
@@ -1835,19 +1835,19 @@
         <v>343308</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>318334</v>
+        <v>318670</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>368339</v>
+        <v>367038</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4671633612921953</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4331799184664528</v>
+        <v>0.433637021845874</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5012251883681662</v>
+        <v>0.4994547581466807</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>845</v>
@@ -1856,19 +1856,19 @@
         <v>671584</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>632091</v>
+        <v>635885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>709345</v>
+        <v>706626</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4642937186089891</v>
+        <v>0.464293718608989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4369904919254708</v>
+        <v>0.4396131001334832</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4903996147236681</v>
+        <v>0.4885194980255115</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>290399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260582</v>
+        <v>260783</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>317764</v>
+        <v>320339</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4080999638078588</v>
+        <v>0.4080999638078587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3661984347694589</v>
+        <v>0.3664810138833197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4465562557241026</v>
+        <v>0.4501752265158912</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>368</v>
@@ -1906,19 +1906,19 @@
         <v>291579</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269508</v>
+        <v>267962</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>317338</v>
+        <v>315795</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.39677280234847</v>
+        <v>0.3967728023484699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3667385211497736</v>
+        <v>0.364635839231147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.431824049177873</v>
+        <v>0.4297256522641323</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>611</v>
@@ -1927,19 +1927,19 @@
         <v>581978</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>545448</v>
+        <v>546319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619266</v>
+        <v>618813</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4023451909147137</v>
+        <v>0.4023451909147136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3770902998787989</v>
+        <v>0.3776926253648217</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4281243169372747</v>
+        <v>0.4278107528472485</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>72336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57357</v>
+        <v>58259</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91200</v>
+        <v>91764</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02057773841327677</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01631638532423585</v>
+        <v>0.01657316059720952</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02594400898573664</v>
+        <v>0.02610436048498808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>153</v>
@@ -2052,19 +2052,19 @@
         <v>90032</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75559</v>
+        <v>75650</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108141</v>
+        <v>108336</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02423738150099073</v>
+        <v>0.02423738150099072</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02034116766712416</v>
+        <v>0.02036579135869195</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02911266087181363</v>
+        <v>0.02916500825972835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>234</v>
@@ -2073,19 +2073,19 @@
         <v>162368</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>137669</v>
+        <v>140289</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>186216</v>
+        <v>189480</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02245800186672662</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01904179172070647</v>
+        <v>0.01940419686033502</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02575657044092946</v>
+        <v>0.02620804023796764</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>174453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>149356</v>
+        <v>151069</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>199572</v>
+        <v>201786</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0496271140561579</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04248764685496653</v>
+        <v>0.04297512169860732</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05677271237412571</v>
+        <v>0.05740276247445101</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>405</v>
@@ -2123,19 +2123,19 @@
         <v>251239</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>226799</v>
+        <v>229115</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>278996</v>
+        <v>278938</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0676360498976368</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06105636607034783</v>
+        <v>0.06167984843634683</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07510845059995755</v>
+        <v>0.07509276265984935</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>614</v>
@@ -2144,19 +2144,19 @@
         <v>425692</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>390788</v>
+        <v>393094</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>464043</v>
+        <v>462593</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05887980430126264</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05405207148565704</v>
+        <v>0.05437101506248341</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06418424993992698</v>
+        <v>0.06398371804644454</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>441316</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>402939</v>
+        <v>398671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>485831</v>
+        <v>484944</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1255422575280637</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1146252495466221</v>
+        <v>0.1134110066384416</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1382055597387455</v>
+        <v>0.1379533240456561</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>891</v>
@@ -2194,19 +2194,19 @@
         <v>575466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>537236</v>
+        <v>537679</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>611904</v>
+        <v>616069</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1549210499680792</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1446290414743551</v>
+        <v>0.1447483002484545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1647305475522083</v>
+        <v>0.1658517721786934</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1383</v>
@@ -2215,19 +2215,19 @@
         <v>1016782</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>962001</v>
+        <v>968622</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1073825</v>
+        <v>1075903</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1406365900647255</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1330595887361717</v>
+        <v>0.1339754221015115</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1485265187599832</v>
+        <v>0.1488140199889177</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>1590505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1525164</v>
+        <v>1522812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1663304</v>
+        <v>1653283</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4524552995408005</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4338676134491132</v>
+        <v>0.4331985139298442</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4731647128927293</v>
+        <v>0.4703140420598268</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2430</v>
@@ -2265,19 +2265,19 @@
         <v>1652802</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1601030</v>
+        <v>1596287</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1709892</v>
+        <v>1709020</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4449502703242598</v>
+        <v>0.4449502703242597</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4310128641123679</v>
+        <v>0.4297359292788318</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4603194189520401</v>
+        <v>0.46008461557827</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4006</v>
@@ -2286,19 +2286,19 @@
         <v>3243307</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3161268</v>
+        <v>3149612</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3327859</v>
+        <v>3326129</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4485993409637717</v>
+        <v>0.4485993409637718</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.437252108162676</v>
+        <v>0.4356399555430094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4602942402134246</v>
+        <v>0.4600549072903872</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>1236665</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1172065</v>
+        <v>1172770</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1304307</v>
+        <v>1299916</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3517975904617011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3334205829798638</v>
+        <v>0.3336211904999952</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3710399571965696</v>
+        <v>0.3697906863829512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1454</v>
@@ -2336,19 +2336,19 @@
         <v>1145038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1092447</v>
+        <v>1091962</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1195022</v>
+        <v>1195103</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3082552483090335</v>
+        <v>0.3082552483090334</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2940971636836239</v>
+        <v>0.2939668110794321</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3217115276519402</v>
+        <v>0.3217332839317745</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2453</v>
@@ -2357,19 +2357,19 @@
         <v>2381703</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2301288</v>
+        <v>2294353</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2464628</v>
+        <v>2464051</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3294262628035136</v>
+        <v>0.3294262628035137</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3183036460111845</v>
+        <v>0.317344343377801</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3408960412041607</v>
+        <v>0.3408162385044825</v>
       </c>
     </row>
     <row r="27">
